--- a/data/long_razon/P18_2-Urba-long_razon.xlsx
+++ b/data/long_razon/P18_2-Urba-long_razon.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-57,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>21,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>19,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-66,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>85,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>19,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-62,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>52,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>19,62%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-67,85; -44,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,86; 63,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,51; 55,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-73,28; -56,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>47,91; 133,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 46,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-68,36; -54,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>23,88; 82,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,41; 38,86</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -742,47 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-56,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>90,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>17,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-54,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>50,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-18,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-55,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>68,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-2,66%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -795,47 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-68,89; -38,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>38,42; 156,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-11,96; 56,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-65,75; -41,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,37; 98,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-37,08; -0,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-63,61; -43,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>38,43; 108,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-17,8; 14,45</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -852,47 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-61,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>38,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>16,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-59,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>128,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-23,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-60,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>75,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-3,47%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-79,4; -32,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-20,53; 137,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-27,47; 87,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-74,2; -38,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>29,03; 277,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-54,31; 21,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-73,03; -43,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>20,74; 168,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-29,64; 39,14</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -962,47 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-57,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>48,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>18,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-61,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>74,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-1,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-59,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>61,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7,42%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1144,82 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-64,62; -47,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,22; 78,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 42,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-66,68; -53,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>48,11; 107,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-14,55; 13,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-64,31; -54,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>40,04; 83,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 21,35</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P18_2-Urba-long_razon.xlsx
+++ b/data/long_razon/P18_2-Urba-long_razon.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +140,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -654,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-0.5784720915895918</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.2670832838863599</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.198962562170802</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.114789808614915</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-0.6555833912090751</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0.8591812343487411</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0.1567136503722105</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>-0.09543249312200204</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>-0.6204390202217663</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>0.5642236880258897</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>0.1764657329294737</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>-0.001009664886013203</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-0.673610111296388</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.1280179377117356</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.06289133239323405</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.1858734907003412</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.7334611937442622</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>0.4870396918012048</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.04731855252817042</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.2998000351674456</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.6823957913309753</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>0.3220226251738525</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>0.0007923554204054067</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>-0.1989440573368915</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>-0.4376854815884036</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.7154738477341993</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.563795669036144</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0.7009766663229323</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>-0.5743727490065017</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>1.340557419463328</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0.4198878518509755</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0.1560945533947465</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>-0.5514917953234502</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>0.8808275068380786</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>0.3762042133069948</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>0.2571491435947581</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-0.5159930827711329</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.8741984729981125</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.1626597182071127</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.03422395360422937</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-0.5480996592116778</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.5185165524719435</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>-0.1997740298813512</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>0.03481899701055861</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>-0.5322382414571568</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>0.681121341587733</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>-0.03709326689865129</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>0.03452654227593557</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.6426453666809157</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.4146465102637996</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.0999311776817608</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.2897657136833435</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.6533926170714064</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>0.1031383271816695</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.3638338350875338</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.2195059487750202</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.612758044694157</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>0.3619475498083443</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>-0.1871814126974725</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>-0.1669004203485632</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>-0.3141934154726571</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>1.577790324945684</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.5204523644210224</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.5327838682119793</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>-0.3972955973426752</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.9638679992994543</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.004133092300653504</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0.3525915945795554</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>-0.4154569172155552</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>1.06006995798219</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>0.146149182129764</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>0.3253666914553998</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1074,137 +931,269 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-0.6134172123407886</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.3831062803570572</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.1349917745534656</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>1.129340742153732</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-0.5895143133669986</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>1.251201358184333</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>-0.2344049916256446</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>-0.3153006541655487</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>-0.6002679540832421</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>0.742437079051428</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>-0.0469178332363492</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>0.3157120219416787</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-0.7981713198670863</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.2157705566229274</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.2824915750658468</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.07858014626603928</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.7425078936031597</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>0.3447954594903019</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.5314351338843267</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.6282378031201661</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.7249972334105413</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>0.1700316721237333</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>-0.311321789633536</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>-0.1885529142412773</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>-0.2984944493234369</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1.396785694283883</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.7496129655903288</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>3.482052487754935</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>-0.3686815944215046</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>2.783057410163615</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>0.2200828575151292</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0.2102259889688567</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>-0.4361792336232679</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>1.567482823997905</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>0.3304829482799871</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>1.193713527396365</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-0.5573345768528114</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.5066550497262918</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.1753875426506439</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.1898670669987372</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-0.6082831147986373</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.7519885351406825</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>-0.0412424359381062</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>-0.07536807308375429</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>-0.5843534811444757</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>0.6312544735593106</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>0.05953268562324657</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>0.0475671437384696</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.6432810400619074</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.2186117161262362</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.02227433557176148</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.07867799645718708</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.6698228456917641</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>0.4992323229883193</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.164917915100473</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.2212245923042779</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.6347426477244535</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>0.4470243778032591</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>-0.05920614845666314</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>-0.09515273574442483</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>-0.4622798134635963</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.8443259777934653</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.3742067948674899</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.5421304418713349</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>-0.5382526945656064</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>1.091840178293454</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.1067024371368298</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.1255271736331852</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>-0.5262483258473326</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0.8676542450449608</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>0.1811984898647605</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>0.2263534987077502</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1212,14 +1201,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
